--- a/cetakstaff/Laporan-PPKO_excel.xlsx
+++ b/cetakstaff/Laporan-PPKO_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -89,42 +89,129 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Renaldi</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>0008/PPKO/11/2023</t>
-  </si>
-  <si>
-    <t>Cupidatat quis nesci</t>
-  </si>
-  <si>
-    <t>Qui eu est ad dolor</t>
-  </si>
-  <si>
-    <t>6564406a9ef5d.</t>
-  </si>
-  <si>
-    <t>2006-11-13 08:29:00</t>
-  </si>
-  <si>
-    <t>1987-11-10 00:19:00</t>
-  </si>
-  <si>
-    <t>Qui et corrupti qui</t>
-  </si>
-  <si>
-    <t>In pariatur Exercit</t>
-  </si>
-  <si>
-    <t>Facere minima rem qu</t>
+    <t>aldi</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>0007/PPKO/11/2023</t>
+  </si>
+  <si>
+    <t>Fugiat quo sed at c</t>
+  </si>
+  <si>
+    <t>Et qui voluptas tota</t>
+  </si>
+  <si>
+    <t>6564131522e5c.</t>
+  </si>
+  <si>
+    <t>1992-12-03 20:47:00</t>
+  </si>
+  <si>
+    <t>1988-12-20 06:13:00</t>
+  </si>
+  <si>
+    <t>Pariatur Omnis libe</t>
+  </si>
+  <si>
+    <t>Deleniti sint animi</t>
+  </si>
+  <si>
+    <t>Non qui aut exercita</t>
   </si>
   <si>
     <t>2023-11-27</t>
   </si>
   <si>
+    <t>Xenia</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>B 456 FFI</t>
+  </si>
+  <si>
+    <t>Abdul - 0854776812</t>
+  </si>
+  <si>
+    <t>Disetujui Manager GA</t>
+  </si>
+  <si>
+    <t>0006/PPKO/11/2023</t>
+  </si>
+  <si>
+    <t>Atque omnis sit con</t>
+  </si>
+  <si>
+    <t>Voluptatum quia aute</t>
+  </si>
+  <si>
+    <t>65603c713f29b.</t>
+  </si>
+  <si>
+    <t>2001-05-11 19:21:00</t>
+  </si>
+  <si>
+    <t>1976-08-01 13:16:00</t>
+  </si>
+  <si>
+    <t>Sint iusto id aut su</t>
+  </si>
+  <si>
+    <t>Pariatur Aut nisi h</t>
+  </si>
+  <si>
+    <t>Ex officiis dolor qu</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>Ertiga</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>B 214 FKB</t>
+  </si>
+  <si>
+    <t>Udin - 088477341902</t>
+  </si>
+  <si>
+    <t>Peminjaman Selesai</t>
+  </si>
+  <si>
+    <t>0005/PPKO/11/2023</t>
+  </si>
+  <si>
+    <t>Ullam cupidatat iure</t>
+  </si>
+  <si>
+    <t>Eum labore molestiae</t>
+  </si>
+  <si>
+    <t>655ff41b9fb1a.</t>
+  </si>
+  <si>
+    <t>2018-11-06 12:14:00</t>
+  </si>
+  <si>
+    <t>1987-05-15 17:59:00</t>
+  </si>
+  <si>
+    <t>In ratione qui eaque</t>
+  </si>
+  <si>
+    <t>Ex molestias sint in</t>
+  </si>
+  <si>
+    <t>Qui nesciunt optio</t>
+  </si>
+  <si>
     <t>Avanza</t>
   </si>
   <si>
@@ -132,12 +219,6 @@
   </si>
   <si>
     <t>B 456 FIF</t>
-  </si>
-  <si>
-    <t>Udin - 088477341902</t>
-  </si>
-  <si>
-    <t>Peminjaman Selesai</t>
   </si>
 </sst>
 </file>
@@ -477,7 +558,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>12003244</v>
+        <v>14322566</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -627,10 +708,158 @@
         <v>39</v>
       </c>
       <c r="W2">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>14322566</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3">
+        <v>125000</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>14322566</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <v>225000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
